--- a/FantaSoccer/MyModule/Bundesliga/xG_tot_all_14.xlsx
+++ b/FantaSoccer/MyModule/Bundesliga/xG_tot_all_14.xlsx
@@ -581,10 +581,10 @@
         <v>4.67582</v>
       </c>
       <c r="F3">
-        <v>5.226292000000001</v>
+        <v>5.226292</v>
       </c>
       <c r="G3">
-        <v>5.568658000000001</v>
+        <v>5.568658</v>
       </c>
       <c r="H3">
         <v>7.355818</v>
@@ -593,13 +593,13 @@
         <v>7.706419</v>
       </c>
       <c r="J3">
-        <v>8.520390000000001</v>
+        <v>8.520389999999999</v>
       </c>
       <c r="K3">
         <v>8.905929</v>
       </c>
       <c r="L3">
-        <v>9.698993000000002</v>
+        <v>9.698993</v>
       </c>
       <c r="M3">
         <v>10.953363</v>
@@ -631,7 +631,7 @@
         <v>3.505528</v>
       </c>
       <c r="G4">
-        <v>6.134628</v>
+        <v>6.134627999999999</v>
       </c>
       <c r="H4">
         <v>7.475508</v>
@@ -669,7 +669,7 @@
         <v>4.620880000000001</v>
       </c>
       <c r="D5">
-        <v>5.793990000000001</v>
+        <v>5.793990000000002</v>
       </c>
       <c r="E5">
         <v>9.787100000000001</v>
@@ -866,7 +866,7 @@
         <v>5.444019000000001</v>
       </c>
       <c r="G9">
-        <v>7.819179</v>
+        <v>7.819179000000001</v>
       </c>
       <c r="H9">
         <v>8.500727000000001</v>
@@ -875,7 +875,7 @@
         <v>8.900099000000001</v>
       </c>
       <c r="J9">
-        <v>9.984819</v>
+        <v>9.984819000000002</v>
       </c>
       <c r="K9">
         <v>11.577349</v>
@@ -904,7 +904,7 @@
         <v>2.07011</v>
       </c>
       <c r="D10">
-        <v>2.994759999999999</v>
+        <v>2.99476</v>
       </c>
       <c r="E10">
         <v>3.439856</v>
@@ -916,10 +916,10 @@
         <v>4.770372</v>
       </c>
       <c r="H10">
-        <v>5.953212</v>
+        <v>5.953212000000001</v>
       </c>
       <c r="I10">
-        <v>6.530364</v>
+        <v>6.530364000000001</v>
       </c>
       <c r="J10">
         <v>8.010154</v>
@@ -1095,7 +1095,7 @@
         <v>4.43344</v>
       </c>
       <c r="E14">
-        <v>7.6918</v>
+        <v>7.691800000000001</v>
       </c>
       <c r="F14">
         <v>10.08874</v>
@@ -1336,7 +1336,7 @@
         <v>4.354542</v>
       </c>
       <c r="G19">
-        <v>7.132021999999999</v>
+        <v>7.132022</v>
       </c>
       <c r="H19">
         <v>7.529945</v>
